--- a/Assets/Data/Table/Convert/Item_Item.xlsx
+++ b/Assets/Data/Table/Convert/Item_Item.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
   <workbookPr codeName="현재_통합_문서"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\UnityProject\ProjectS\Assets\Data\Table\Convert\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Storage\UnityProject\ProjectS\Assets\Data\Table\Convert\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6ABB6523-1AD9-41BD-BF3D-0A572BCAAB91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F5D7C86-E341-42F9-B18E-02992D411000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-46188" yWindow="-108" windowWidth="46296" windowHeight="25680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Item" sheetId="1" r:id="rId1"/>
@@ -530,14 +530,13 @@
 Path</t>
   </si>
   <si>
-    <t>Enum.Item.
-ItemType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Tb.String
 Item</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Em.Item.
+ItemType</t>
   </si>
 </sst>
 </file>
@@ -734,115 +733,102 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="45"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="45"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="45"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="45"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="45"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -855,10 +841,10 @@
     <xf numFmtId="0" fontId="4" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="45"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1163,25 +1149,25 @@
   <dimension ref="A1:J54"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="26.375" style="14" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="35.375" style="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.25" style="14" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.3984375" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35.3984375" style="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.19921875" style="5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="30" style="5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="29" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="29.25" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="29.19921875" style="5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="25" style="5" customWidth="1"/>
     <col min="8" max="8" width="24" style="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.75" style="71" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.69921875" style="58" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="13.5" style="5" bestFit="1" customWidth="1"/>
     <col min="11" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="4" customFormat="1" ht="87" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" s="4" customFormat="1" ht="84.6" x14ac:dyDescent="0.4">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -1200,10 +1186,10 @@
       <c r="F1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="72" t="s">
+      <c r="G1" s="59" t="s">
         <v>117</v>
       </c>
-      <c r="H1" s="72" t="s">
+      <c r="H1" s="59" t="s">
         <v>116</v>
       </c>
       <c r="I1" s="9" t="s">
@@ -1213,27 +1199,27 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="2" customFormat="1" ht="27" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" s="2" customFormat="1" ht="31.2" x14ac:dyDescent="0.4">
       <c r="A2" s="7" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="7"/>
       <c r="C2" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="D2" s="63" t="s">
         <v>135</v>
       </c>
-      <c r="D2" s="76" t="s">
-        <v>136</v>
-      </c>
-      <c r="E2" s="76" t="s">
-        <v>136</v>
-      </c>
-      <c r="F2" s="76" t="s">
-        <v>136</v>
-      </c>
-      <c r="G2" s="73" t="s">
+      <c r="E2" s="63" t="s">
+        <v>135</v>
+      </c>
+      <c r="F2" s="63" t="s">
+        <v>135</v>
+      </c>
+      <c r="G2" s="60" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="73" t="s">
+      <c r="H2" s="60" t="s">
         <v>1</v>
       </c>
       <c r="I2" s="11" t="s">
@@ -1243,1823 +1229,1823 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:10" s="43" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="31" t="s">
+    <row r="3" spans="1:10" s="35" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="B3" s="32" t="s">
+      <c r="B3" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="C3" s="31" t="s">
+      <c r="C3" s="26" t="s">
         <v>97</v>
       </c>
-      <c r="D3" s="33" t="str">
+      <c r="D3" s="26" t="str">
         <f t="shared" ref="D3:D9" si="0">A3&amp;"_"&amp;"Name"</f>
         <v>Dollar_Name</v>
       </c>
-      <c r="E3" s="33" t="str">
+      <c r="E3" s="26" t="str">
         <f t="shared" ref="E3:E9" si="1">A3&amp;"_"&amp;"Desc"</f>
         <v>Dollar_Desc</v>
       </c>
-      <c r="F3" s="33" t="str">
+      <c r="F3" s="26" t="str">
         <f t="shared" ref="F3:F9" si="2">A3&amp;"_"&amp;"Story"</f>
         <v>Dollar_Story</v>
       </c>
-      <c r="G3" s="31" t="s">
+      <c r="G3" s="26" t="s">
         <v>115</v>
       </c>
-      <c r="H3" s="31" t="s">
+      <c r="H3" s="26" t="s">
         <v>115</v>
       </c>
-      <c r="I3" s="60" t="s">
+      <c r="I3" s="47" t="s">
         <v>115</v>
       </c>
-      <c r="J3" s="33" t="s">
+      <c r="J3" s="26" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="4" spans="1:10" s="43" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="44" t="s">
+    <row r="4" spans="1:10" s="35" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="B4" s="45" t="s">
+      <c r="B4" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="31" t="s">
+      <c r="C4" s="26" t="s">
         <v>98</v>
       </c>
-      <c r="D4" s="46" t="str">
+      <c r="D4" s="36" t="str">
         <f t="shared" si="0"/>
         <v>SilverCoin_Name</v>
       </c>
-      <c r="E4" s="46" t="str">
+      <c r="E4" s="36" t="str">
         <f t="shared" si="1"/>
         <v>SilverCoin_Desc</v>
       </c>
-      <c r="F4" s="46" t="str">
+      <c r="F4" s="36" t="str">
         <f t="shared" si="2"/>
         <v>SilverCoin_Story</v>
       </c>
-      <c r="G4" s="74" t="s">
-        <v>114</v>
-      </c>
-      <c r="H4" s="74" t="s">
-        <v>114</v>
-      </c>
-      <c r="I4" s="61" t="s">
-        <v>114</v>
-      </c>
-      <c r="J4" s="33" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" s="43" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="44" t="s">
+      <c r="G4" s="61" t="s">
+        <v>114</v>
+      </c>
+      <c r="H4" s="61" t="s">
+        <v>114</v>
+      </c>
+      <c r="I4" s="48" t="s">
+        <v>114</v>
+      </c>
+      <c r="J4" s="26" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" s="35" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="B5" s="45" t="s">
+      <c r="B5" s="37" t="s">
         <v>28</v>
       </c>
-      <c r="C5" s="31" t="s">
+      <c r="C5" s="26" t="s">
         <v>98</v>
       </c>
-      <c r="D5" s="46" t="str">
+      <c r="D5" s="36" t="str">
         <f t="shared" si="0"/>
         <v>GoldCoin_Name</v>
       </c>
-      <c r="E5" s="46" t="str">
+      <c r="E5" s="36" t="str">
         <f t="shared" si="1"/>
         <v>GoldCoin_Desc</v>
       </c>
-      <c r="F5" s="46" t="str">
+      <c r="F5" s="36" t="str">
         <f t="shared" si="2"/>
         <v>GoldCoin_Story</v>
       </c>
-      <c r="G5" s="74" t="s">
-        <v>114</v>
-      </c>
-      <c r="H5" s="74" t="s">
-        <v>114</v>
-      </c>
-      <c r="I5" s="61" t="s">
-        <v>114</v>
-      </c>
-      <c r="J5" s="33" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" s="43" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="44" t="s">
+      <c r="G5" s="61" t="s">
+        <v>114</v>
+      </c>
+      <c r="H5" s="61" t="s">
+        <v>114</v>
+      </c>
+      <c r="I5" s="48" t="s">
+        <v>114</v>
+      </c>
+      <c r="J5" s="26" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" s="35" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="36" t="s">
         <v>34</v>
       </c>
-      <c r="B6" s="45" t="s">
+      <c r="B6" s="37" t="s">
         <v>29</v>
       </c>
-      <c r="C6" s="31" t="s">
+      <c r="C6" s="26" t="s">
         <v>98</v>
       </c>
-      <c r="D6" s="46" t="str">
+      <c r="D6" s="36" t="str">
         <f t="shared" si="0"/>
         <v>SilverBullion_Name</v>
       </c>
-      <c r="E6" s="46" t="str">
+      <c r="E6" s="36" t="str">
         <f t="shared" si="1"/>
         <v>SilverBullion_Desc</v>
       </c>
-      <c r="F6" s="46" t="str">
+      <c r="F6" s="36" t="str">
         <f t="shared" si="2"/>
         <v>SilverBullion_Story</v>
       </c>
-      <c r="G6" s="74" t="s">
-        <v>114</v>
-      </c>
-      <c r="H6" s="74" t="s">
-        <v>114</v>
-      </c>
-      <c r="I6" s="61" t="s">
-        <v>114</v>
-      </c>
-      <c r="J6" s="33" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" s="43" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="44" t="s">
+      <c r="G6" s="61" t="s">
+        <v>114</v>
+      </c>
+      <c r="H6" s="61" t="s">
+        <v>114</v>
+      </c>
+      <c r="I6" s="48" t="s">
+        <v>114</v>
+      </c>
+      <c r="J6" s="26" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" s="35" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="36" t="s">
         <v>35</v>
       </c>
-      <c r="B7" s="45" t="s">
+      <c r="B7" s="37" t="s">
         <v>30</v>
       </c>
-      <c r="C7" s="31" t="s">
+      <c r="C7" s="26" t="s">
         <v>98</v>
       </c>
-      <c r="D7" s="46" t="str">
+      <c r="D7" s="36" t="str">
         <f t="shared" si="0"/>
         <v>GoldBulion_Name</v>
       </c>
-      <c r="E7" s="46" t="str">
+      <c r="E7" s="36" t="str">
         <f t="shared" si="1"/>
         <v>GoldBulion_Desc</v>
       </c>
-      <c r="F7" s="46" t="str">
+      <c r="F7" s="36" t="str">
         <f t="shared" si="2"/>
         <v>GoldBulion_Story</v>
       </c>
-      <c r="G7" s="74" t="s">
-        <v>114</v>
-      </c>
-      <c r="H7" s="74" t="s">
-        <v>114</v>
-      </c>
-      <c r="I7" s="61" t="s">
-        <v>114</v>
-      </c>
-      <c r="J7" s="33" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" s="49" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="47" t="s">
+      <c r="G7" s="61" t="s">
+        <v>114</v>
+      </c>
+      <c r="H7" s="61" t="s">
+        <v>114</v>
+      </c>
+      <c r="I7" s="48" t="s">
+        <v>114</v>
+      </c>
+      <c r="J7" s="26" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" s="39" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="B8" s="48" t="s">
+      <c r="B8" s="38" t="s">
         <v>24</v>
       </c>
-      <c r="C8" s="47" t="s">
+      <c r="C8" s="21" t="s">
         <v>96</v>
       </c>
-      <c r="D8" s="24" t="str">
+      <c r="D8" s="21" t="str">
         <f t="shared" si="0"/>
         <v>TextLog_Name</v>
       </c>
-      <c r="E8" s="24" t="str">
+      <c r="E8" s="21" t="str">
         <f t="shared" si="1"/>
         <v>TextLog_Desc</v>
       </c>
-      <c r="F8" s="24" t="str">
+      <c r="F8" s="21" t="str">
         <f t="shared" si="2"/>
         <v>TextLog_Story</v>
       </c>
-      <c r="G8" s="75" t="s">
-        <v>114</v>
-      </c>
-      <c r="H8" s="75" t="s">
-        <v>114</v>
-      </c>
-      <c r="I8" s="62" t="s">
-        <v>114</v>
-      </c>
-      <c r="J8" s="25" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" s="49" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="47" t="s">
+      <c r="G8" s="62" t="s">
+        <v>114</v>
+      </c>
+      <c r="H8" s="62" t="s">
+        <v>114</v>
+      </c>
+      <c r="I8" s="49" t="s">
+        <v>114</v>
+      </c>
+      <c r="J8" s="19" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" s="39" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="B9" s="48" t="s">
+      <c r="B9" s="38" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="47" t="s">
+      <c r="C9" s="21" t="s">
         <v>96</v>
       </c>
-      <c r="D9" s="24" t="str">
+      <c r="D9" s="21" t="str">
         <f t="shared" si="0"/>
         <v>AudioLog_Name</v>
       </c>
-      <c r="E9" s="24" t="str">
+      <c r="E9" s="21" t="str">
         <f t="shared" si="1"/>
         <v>AudioLog_Desc</v>
       </c>
-      <c r="F9" s="24" t="str">
+      <c r="F9" s="21" t="str">
         <f t="shared" si="2"/>
         <v>AudioLog_Story</v>
       </c>
-      <c r="G9" s="75" t="s">
-        <v>114</v>
-      </c>
-      <c r="H9" s="75" t="s">
-        <v>114</v>
-      </c>
-      <c r="I9" s="62" t="s">
-        <v>114</v>
-      </c>
-      <c r="J9" s="25" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" s="30" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="27" t="s">
+      <c r="G9" s="62" t="s">
+        <v>114</v>
+      </c>
+      <c r="H9" s="62" t="s">
+        <v>114</v>
+      </c>
+      <c r="I9" s="49" t="s">
+        <v>114</v>
+      </c>
+      <c r="J9" s="19" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" s="25" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="28" t="s">
+      <c r="B10" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="59" t="s">
+      <c r="C10" s="46" t="s">
         <v>113</v>
       </c>
-      <c r="D10" s="58" t="str">
+      <c r="D10" s="46" t="str">
         <f>A10&amp;"_"&amp;"Name"</f>
         <v>HealItem_Item_Name</v>
       </c>
-      <c r="E10" s="58" t="str">
+      <c r="E10" s="46" t="str">
         <f>A10&amp;"_"&amp;"Desc"</f>
         <v>HealItem_Item_Desc</v>
       </c>
-      <c r="F10" s="58" t="str">
+      <c r="F10" s="46" t="str">
         <f>A10&amp;"_"&amp;"Story"</f>
         <v>HealItem_Item_Story</v>
       </c>
-      <c r="G10" s="27" t="s">
+      <c r="G10" s="23" t="s">
         <v>121</v>
       </c>
-      <c r="H10" s="27" t="s">
-        <v>114</v>
-      </c>
-      <c r="I10" s="63" t="s">
-        <v>114</v>
-      </c>
-      <c r="J10" s="29" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" s="34" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="31" t="s">
+      <c r="H10" s="23" t="s">
+        <v>114</v>
+      </c>
+      <c r="I10" s="50" t="s">
+        <v>114</v>
+      </c>
+      <c r="J10" s="23" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" s="28" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="26" t="s">
         <v>92</v>
       </c>
-      <c r="B11" s="32" t="s">
+      <c r="B11" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="C11" s="31" t="s">
+      <c r="C11" s="26" t="s">
         <v>100</v>
       </c>
-      <c r="D11" s="33" t="str">
+      <c r="D11" s="26" t="str">
         <f t="shared" ref="D11:D53" si="3">A11&amp;"_"&amp;"Name"</f>
         <v>VacuumTube_Name</v>
       </c>
-      <c r="E11" s="33" t="str">
+      <c r="E11" s="26" t="str">
         <f t="shared" ref="E11:E53" si="4">A11&amp;"_"&amp;"Desc"</f>
         <v>VacuumTube_Desc</v>
       </c>
-      <c r="F11" s="33" t="str">
+      <c r="F11" s="26" t="str">
         <f t="shared" ref="F11:F53" si="5">A11&amp;"_"&amp;"Story"</f>
         <v>VacuumTube_Story</v>
       </c>
-      <c r="G11" s="31" t="s">
-        <v>114</v>
-      </c>
-      <c r="H11" s="31" t="s">
-        <v>114</v>
-      </c>
-      <c r="I11" s="60" t="s">
-        <v>114</v>
-      </c>
-      <c r="J11" s="33" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="20" t="s">
+      <c r="G11" s="26" t="s">
+        <v>114</v>
+      </c>
+      <c r="H11" s="26" t="s">
+        <v>114</v>
+      </c>
+      <c r="I11" s="47" t="s">
+        <v>114</v>
+      </c>
+      <c r="J11" s="26" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" s="16" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="18" t="s">
         <v>94</v>
       </c>
-      <c r="B12" s="19" t="s">
+      <c r="B12" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="C12" s="20" t="s">
+      <c r="C12" s="18" t="s">
         <v>99</v>
       </c>
-      <c r="D12" s="21" t="str">
+      <c r="D12" s="18" t="str">
         <f t="shared" si="3"/>
         <v>HackingTool_Name</v>
       </c>
-      <c r="E12" s="21" t="str">
+      <c r="E12" s="18" t="str">
         <f t="shared" si="4"/>
         <v>HackingTool_Desc</v>
       </c>
-      <c r="F12" s="21" t="str">
+      <c r="F12" s="18" t="str">
         <f t="shared" si="5"/>
         <v>HackingTool_Story</v>
       </c>
-      <c r="G12" s="20" t="s">
-        <v>114</v>
-      </c>
-      <c r="H12" s="20" t="s">
-        <v>114</v>
-      </c>
-      <c r="I12" s="64" t="s">
-        <v>114</v>
-      </c>
-      <c r="J12" s="21" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="15" t="s">
+      <c r="G12" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="H12" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="I12" s="51" t="s">
+        <v>114</v>
+      </c>
+      <c r="J12" s="18" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" s="16" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="14" t="s">
         <v>122</v>
       </c>
-      <c r="B13" s="16" t="s">
+      <c r="B13" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="15" t="s">
+      <c r="C13" s="14" t="s">
         <v>102</v>
       </c>
-      <c r="D13" s="17" t="str">
+      <c r="D13" s="14" t="str">
         <f t="shared" si="3"/>
         <v>HealItem_LevelUpItem_Name</v>
       </c>
-      <c r="E13" s="17" t="str">
+      <c r="E13" s="14" t="str">
         <f t="shared" si="4"/>
         <v>HealItem_LevelUpItem_Desc</v>
       </c>
-      <c r="F13" s="17" t="str">
+      <c r="F13" s="14" t="str">
         <f t="shared" si="5"/>
         <v>HealItem_LevelUpItem_Story</v>
       </c>
-      <c r="G13" s="20" t="s">
-        <v>114</v>
-      </c>
-      <c r="H13" s="20" t="s">
-        <v>114</v>
-      </c>
-      <c r="I13" s="65" t="s">
-        <v>114</v>
-      </c>
-      <c r="J13" s="21" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="15" t="s">
+      <c r="G13" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="H13" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="I13" s="52" t="s">
+        <v>114</v>
+      </c>
+      <c r="J13" s="18" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" s="16" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="14" t="s">
         <v>127</v>
       </c>
-      <c r="B14" s="16" t="s">
+      <c r="B14" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="15" t="s">
+      <c r="C14" s="14" t="s">
         <v>101</v>
       </c>
-      <c r="D14" s="17" t="str">
+      <c r="D14" s="14" t="str">
         <f t="shared" si="3"/>
         <v>HealItem_LevelUpItemPiece_Name</v>
       </c>
-      <c r="E14" s="17" t="str">
+      <c r="E14" s="14" t="str">
         <f t="shared" si="4"/>
         <v>HealItem_LevelUpItemPiece_Desc</v>
       </c>
-      <c r="F14" s="17" t="str">
+      <c r="F14" s="14" t="str">
         <f t="shared" si="5"/>
         <v>HealItem_LevelUpItemPiece_Story</v>
       </c>
-      <c r="G14" s="20" t="s">
-        <v>114</v>
-      </c>
-      <c r="H14" s="20" t="s">
-        <v>114</v>
-      </c>
-      <c r="I14" s="65" t="s">
-        <v>114</v>
-      </c>
-      <c r="J14" s="21" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="22" t="s">
+      <c r="G14" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="H14" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="I14" s="52" t="s">
+        <v>114</v>
+      </c>
+      <c r="J14" s="18" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" s="22" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="19" t="s">
         <v>123</v>
       </c>
-      <c r="B15" s="23" t="s">
+      <c r="B15" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="C15" s="22" t="s">
+      <c r="C15" s="19" t="s">
         <v>101</v>
       </c>
-      <c r="D15" s="24" t="str">
+      <c r="D15" s="21" t="str">
         <f t="shared" si="3"/>
         <v>MaxHpItem_LevelUpItem_Name</v>
       </c>
-      <c r="E15" s="24" t="str">
+      <c r="E15" s="21" t="str">
         <f t="shared" si="4"/>
         <v>MaxHpItem_LevelUpItem_Desc</v>
       </c>
-      <c r="F15" s="24" t="str">
+      <c r="F15" s="21" t="str">
         <f t="shared" si="5"/>
         <v>MaxHpItem_LevelUpItem_Story</v>
       </c>
-      <c r="G15" s="22" t="s">
-        <v>114</v>
-      </c>
-      <c r="H15" s="22" t="s">
-        <v>114</v>
-      </c>
-      <c r="I15" s="66" t="s">
-        <v>114</v>
-      </c>
-      <c r="J15" s="25" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="22" t="s">
+      <c r="G15" s="19" t="s">
+        <v>114</v>
+      </c>
+      <c r="H15" s="19" t="s">
+        <v>114</v>
+      </c>
+      <c r="I15" s="53" t="s">
+        <v>114</v>
+      </c>
+      <c r="J15" s="19" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" s="22" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="19" t="s">
         <v>128</v>
       </c>
-      <c r="B16" s="23" t="s">
+      <c r="B16" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="47" t="s">
+      <c r="C16" s="21" t="s">
         <v>101</v>
       </c>
-      <c r="D16" s="24" t="str">
+      <c r="D16" s="21" t="str">
         <f t="shared" si="3"/>
         <v>MaxHpItem_LevelUpItemPiece_Name</v>
       </c>
-      <c r="E16" s="24" t="str">
+      <c r="E16" s="21" t="str">
         <f t="shared" si="4"/>
         <v>MaxHpItem_LevelUpItemPiece_Desc</v>
       </c>
-      <c r="F16" s="24" t="str">
+      <c r="F16" s="21" t="str">
         <f t="shared" si="5"/>
         <v>MaxHpItem_LevelUpItemPiece_Story</v>
       </c>
-      <c r="G16" s="22" t="s">
-        <v>114</v>
-      </c>
-      <c r="H16" s="22" t="s">
-        <v>114</v>
-      </c>
-      <c r="I16" s="66" t="s">
-        <v>114</v>
-      </c>
-      <c r="J16" s="25" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" s="30" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="27" t="s">
+      <c r="G16" s="19" t="s">
+        <v>114</v>
+      </c>
+      <c r="H16" s="19" t="s">
+        <v>114</v>
+      </c>
+      <c r="I16" s="53" t="s">
+        <v>114</v>
+      </c>
+      <c r="J16" s="19" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" s="25" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="23" t="s">
         <v>124</v>
       </c>
-      <c r="B17" s="28" t="s">
+      <c r="B17" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="C17" s="59" t="s">
+      <c r="C17" s="46" t="s">
         <v>101</v>
       </c>
-      <c r="D17" s="29" t="str">
+      <c r="D17" s="23" t="str">
         <f t="shared" si="3"/>
         <v>MaxMpItem_LevelUpItem_Name</v>
       </c>
-      <c r="E17" s="29" t="str">
+      <c r="E17" s="23" t="str">
         <f t="shared" si="4"/>
         <v>MaxMpItem_LevelUpItem_Desc</v>
       </c>
-      <c r="F17" s="29" t="str">
+      <c r="F17" s="23" t="str">
         <f t="shared" si="5"/>
         <v>MaxMpItem_LevelUpItem_Story</v>
       </c>
-      <c r="G17" s="27" t="s">
-        <v>114</v>
-      </c>
-      <c r="H17" s="27" t="s">
-        <v>114</v>
-      </c>
-      <c r="I17" s="63" t="s">
-        <v>114</v>
-      </c>
-      <c r="J17" s="29" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" s="30" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="27" t="s">
+      <c r="G17" s="23" t="s">
+        <v>114</v>
+      </c>
+      <c r="H17" s="23" t="s">
+        <v>114</v>
+      </c>
+      <c r="I17" s="50" t="s">
+        <v>114</v>
+      </c>
+      <c r="J17" s="23" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" s="25" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="23" t="s">
         <v>129</v>
       </c>
-      <c r="B18" s="28" t="s">
+      <c r="B18" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C18" s="59" t="s">
+      <c r="C18" s="46" t="s">
         <v>101</v>
       </c>
-      <c r="D18" s="29" t="str">
+      <c r="D18" s="23" t="str">
         <f t="shared" si="3"/>
         <v>MaxMpItem_LevelUpItemPiece_Name</v>
       </c>
-      <c r="E18" s="29" t="str">
+      <c r="E18" s="23" t="str">
         <f t="shared" si="4"/>
         <v>MaxMpItem_LevelUpItemPiece_Desc</v>
       </c>
-      <c r="F18" s="29" t="str">
+      <c r="F18" s="23" t="str">
         <f t="shared" si="5"/>
         <v>MaxMpItem_LevelUpItemPiece_Story</v>
       </c>
-      <c r="G18" s="27" t="s">
-        <v>114</v>
-      </c>
-      <c r="H18" s="27" t="s">
-        <v>114</v>
-      </c>
-      <c r="I18" s="63" t="s">
-        <v>114</v>
-      </c>
-      <c r="J18" s="29" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" s="34" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="31" t="s">
+      <c r="G18" s="23" t="s">
+        <v>114</v>
+      </c>
+      <c r="H18" s="23" t="s">
+        <v>114</v>
+      </c>
+      <c r="I18" s="50" t="s">
+        <v>114</v>
+      </c>
+      <c r="J18" s="23" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" s="28" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="26" t="s">
         <v>125</v>
       </c>
-      <c r="B19" s="32" t="s">
+      <c r="B19" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="C19" s="44" t="s">
+      <c r="C19" s="36" t="s">
         <v>101</v>
       </c>
-      <c r="D19" s="33" t="str">
+      <c r="D19" s="26" t="str">
         <f t="shared" si="3"/>
         <v>MaxTpItem_LevelUpItem_Name</v>
       </c>
-      <c r="E19" s="33" t="str">
+      <c r="E19" s="26" t="str">
         <f t="shared" si="4"/>
         <v>MaxTpItem_LevelUpItem_Desc</v>
       </c>
-      <c r="F19" s="33" t="str">
+      <c r="F19" s="26" t="str">
         <f t="shared" si="5"/>
         <v>MaxTpItem_LevelUpItem_Story</v>
       </c>
-      <c r="G19" s="31" t="s">
-        <v>114</v>
-      </c>
-      <c r="H19" s="31" t="s">
-        <v>114</v>
-      </c>
-      <c r="I19" s="60" t="s">
-        <v>114</v>
-      </c>
-      <c r="J19" s="33" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" s="34" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="31" t="s">
+      <c r="G19" s="26" t="s">
+        <v>114</v>
+      </c>
+      <c r="H19" s="26" t="s">
+        <v>114</v>
+      </c>
+      <c r="I19" s="47" t="s">
+        <v>114</v>
+      </c>
+      <c r="J19" s="26" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" s="28" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="26" t="s">
         <v>130</v>
       </c>
-      <c r="B20" s="32" t="s">
+      <c r="B20" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="C20" s="44" t="s">
+      <c r="C20" s="36" t="s">
         <v>101</v>
       </c>
-      <c r="D20" s="33" t="str">
+      <c r="D20" s="26" t="str">
         <f t="shared" si="3"/>
         <v>MaxTpItem_LevelUpItemPiece_Name</v>
       </c>
-      <c r="E20" s="33" t="str">
+      <c r="E20" s="26" t="str">
         <f t="shared" si="4"/>
         <v>MaxTpItem_LevelUpItemPiece_Desc</v>
       </c>
-      <c r="F20" s="33" t="str">
+      <c r="F20" s="26" t="str">
         <f t="shared" si="5"/>
         <v>MaxTpItem_LevelUpItemPiece_Story</v>
       </c>
-      <c r="G20" s="31" t="s">
-        <v>114</v>
-      </c>
-      <c r="H20" s="31" t="s">
-        <v>114</v>
-      </c>
-      <c r="I20" s="60" t="s">
-        <v>114</v>
-      </c>
-      <c r="J20" s="33" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" s="38" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="35" t="s">
+      <c r="G20" s="26" t="s">
+        <v>114</v>
+      </c>
+      <c r="H20" s="26" t="s">
+        <v>114</v>
+      </c>
+      <c r="I20" s="47" t="s">
+        <v>114</v>
+      </c>
+      <c r="J20" s="26" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" s="31" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="29" t="s">
         <v>126</v>
       </c>
-      <c r="B21" s="36" t="s">
+      <c r="B21" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="C21" s="35" t="s">
+      <c r="C21" s="29" t="s">
         <v>101</v>
       </c>
-      <c r="D21" s="37" t="str">
+      <c r="D21" s="29" t="str">
         <f t="shared" si="3"/>
         <v>MaxEquipSlot_LevelUpItem_Name</v>
       </c>
-      <c r="E21" s="37" t="str">
+      <c r="E21" s="29" t="str">
         <f t="shared" si="4"/>
         <v>MaxEquipSlot_LevelUpItem_Desc</v>
       </c>
-      <c r="F21" s="37" t="str">
+      <c r="F21" s="29" t="str">
         <f t="shared" si="5"/>
         <v>MaxEquipSlot_LevelUpItem_Story</v>
       </c>
-      <c r="G21" s="35" t="s">
-        <v>114</v>
-      </c>
-      <c r="H21" s="35" t="s">
-        <v>114</v>
-      </c>
-      <c r="I21" s="67" t="s">
-        <v>114</v>
-      </c>
-      <c r="J21" s="37" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" s="38" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="35" t="s">
+      <c r="G21" s="29" t="s">
+        <v>114</v>
+      </c>
+      <c r="H21" s="29" t="s">
+        <v>114</v>
+      </c>
+      <c r="I21" s="54" t="s">
+        <v>114</v>
+      </c>
+      <c r="J21" s="29" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" s="31" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="29" t="s">
         <v>131</v>
       </c>
-      <c r="B22" s="36" t="s">
+      <c r="B22" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="C22" s="35" t="s">
+      <c r="C22" s="29" t="s">
         <v>101</v>
       </c>
-      <c r="D22" s="37" t="str">
+      <c r="D22" s="29" t="str">
         <f t="shared" si="3"/>
         <v>MaxEquipSlot_LevelUpItemPiece_Name</v>
       </c>
-      <c r="E22" s="37" t="str">
+      <c r="E22" s="29" t="str">
         <f t="shared" si="4"/>
         <v>MaxEquipSlot_LevelUpItemPiece_Desc</v>
       </c>
-      <c r="F22" s="37" t="str">
+      <c r="F22" s="29" t="str">
         <f t="shared" si="5"/>
         <v>MaxEquipSlot_LevelUpItemPiece_Story</v>
       </c>
-      <c r="G22" s="35" t="s">
-        <v>114</v>
-      </c>
-      <c r="H22" s="35" t="s">
-        <v>114</v>
-      </c>
-      <c r="I22" s="67" t="s">
-        <v>114</v>
-      </c>
-      <c r="J22" s="37" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" s="42" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="39" t="s">
+      <c r="G22" s="29" t="s">
+        <v>114</v>
+      </c>
+      <c r="H22" s="29" t="s">
+        <v>114</v>
+      </c>
+      <c r="I22" s="54" t="s">
+        <v>114</v>
+      </c>
+      <c r="J22" s="29" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" s="34" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="32" t="s">
         <v>132</v>
       </c>
-      <c r="B23" s="40" t="s">
+      <c r="B23" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="C23" s="39" t="s">
+      <c r="C23" s="32" t="s">
         <v>101</v>
       </c>
-      <c r="D23" s="41" t="str">
+      <c r="D23" s="32" t="str">
         <f t="shared" si="3"/>
         <v>AtkDamage_LevelUpItem_Name</v>
       </c>
-      <c r="E23" s="41" t="str">
+      <c r="E23" s="32" t="str">
         <f t="shared" si="4"/>
         <v>AtkDamage_LevelUpItem_Desc</v>
       </c>
-      <c r="F23" s="41" t="str">
+      <c r="F23" s="32" t="str">
         <f t="shared" si="5"/>
         <v>AtkDamage_LevelUpItem_Story</v>
       </c>
-      <c r="G23" s="39" t="s">
-        <v>114</v>
-      </c>
-      <c r="H23" s="39" t="s">
-        <v>114</v>
-      </c>
-      <c r="I23" s="68" t="s">
-        <v>114</v>
-      </c>
-      <c r="J23" s="41" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" s="42" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="39" t="s">
+      <c r="G23" s="32" t="s">
+        <v>114</v>
+      </c>
+      <c r="H23" s="32" t="s">
+        <v>114</v>
+      </c>
+      <c r="I23" s="55" t="s">
+        <v>114</v>
+      </c>
+      <c r="J23" s="32" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" s="34" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="32" t="s">
         <v>133</v>
       </c>
-      <c r="B24" s="40" t="s">
+      <c r="B24" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="C24" s="39" t="s">
+      <c r="C24" s="32" t="s">
         <v>101</v>
       </c>
-      <c r="D24" s="41" t="str">
+      <c r="D24" s="32" t="str">
         <f t="shared" si="3"/>
         <v>AtkDamage_LevelUpItemPiece_Name</v>
       </c>
-      <c r="E24" s="41" t="str">
+      <c r="E24" s="32" t="str">
         <f t="shared" si="4"/>
         <v>AtkDamage_LevelUpItemPiece_Desc</v>
       </c>
-      <c r="F24" s="41" t="str">
+      <c r="F24" s="32" t="str">
         <f t="shared" si="5"/>
         <v>AtkDamage_LevelUpItemPiece_Story</v>
       </c>
-      <c r="G24" s="39" t="s">
-        <v>114</v>
-      </c>
-      <c r="H24" s="39" t="s">
-        <v>114</v>
-      </c>
-      <c r="I24" s="68" t="s">
-        <v>114</v>
-      </c>
-      <c r="J24" s="41" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" s="30" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="27" t="s">
+      <c r="G24" s="32" t="s">
+        <v>114</v>
+      </c>
+      <c r="H24" s="32" t="s">
+        <v>114</v>
+      </c>
+      <c r="I24" s="55" t="s">
+        <v>114</v>
+      </c>
+      <c r="J24" s="32" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" s="25" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="23" t="s">
         <v>93</v>
       </c>
-      <c r="B25" s="28" t="s">
+      <c r="B25" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="C25" s="27" t="s">
+      <c r="C25" s="23" t="s">
         <v>105</v>
       </c>
-      <c r="D25" s="29" t="str">
+      <c r="D25" s="23" t="str">
         <f t="shared" si="3"/>
         <v>LP_Record_Name</v>
       </c>
-      <c r="E25" s="29" t="str">
+      <c r="E25" s="23" t="str">
         <f t="shared" si="4"/>
         <v>LP_Record_Desc</v>
       </c>
-      <c r="F25" s="29" t="str">
+      <c r="F25" s="23" t="str">
         <f t="shared" si="5"/>
         <v>LP_Record_Story</v>
       </c>
-      <c r="G25" s="27" t="s">
-        <v>114</v>
-      </c>
-      <c r="H25" s="27" t="s">
-        <v>114</v>
-      </c>
-      <c r="I25" s="63" t="s">
-        <v>114</v>
-      </c>
-      <c r="J25" s="29" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" s="53" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="50" t="s">
+      <c r="G25" s="23" t="s">
+        <v>114</v>
+      </c>
+      <c r="H25" s="23" t="s">
+        <v>114</v>
+      </c>
+      <c r="I25" s="50" t="s">
+        <v>114</v>
+      </c>
+      <c r="J25" s="23" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" s="42" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="40" t="s">
         <v>56</v>
       </c>
-      <c r="B26" s="51" t="s">
+      <c r="B26" s="41" t="s">
         <v>41</v>
       </c>
-      <c r="C26" s="50" t="s">
+      <c r="C26" s="40" t="s">
         <v>103</v>
       </c>
-      <c r="D26" s="52" t="str">
+      <c r="D26" s="40" t="str">
         <f t="shared" si="3"/>
         <v>Map_MapName1_Name</v>
       </c>
-      <c r="E26" s="52" t="str">
+      <c r="E26" s="40" t="str">
         <f t="shared" si="4"/>
         <v>Map_MapName1_Desc</v>
       </c>
-      <c r="F26" s="52" t="str">
+      <c r="F26" s="40" t="str">
         <f t="shared" si="5"/>
         <v>Map_MapName1_Story</v>
       </c>
-      <c r="G26" s="50" t="s">
-        <v>114</v>
-      </c>
-      <c r="H26" s="50" t="s">
-        <v>114</v>
-      </c>
-      <c r="I26" s="69" t="s">
-        <v>114</v>
-      </c>
-      <c r="J26" s="52" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" s="53" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="50" t="s">
+      <c r="G26" s="40" t="s">
+        <v>114</v>
+      </c>
+      <c r="H26" s="40" t="s">
+        <v>114</v>
+      </c>
+      <c r="I26" s="56" t="s">
+        <v>114</v>
+      </c>
+      <c r="J26" s="40" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" s="42" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="40" t="s">
         <v>57</v>
       </c>
-      <c r="B27" s="51" t="s">
+      <c r="B27" s="41" t="s">
         <v>42</v>
       </c>
-      <c r="C27" s="50" t="s">
+      <c r="C27" s="40" t="s">
         <v>103</v>
       </c>
-      <c r="D27" s="52" t="str">
+      <c r="D27" s="40" t="str">
         <f t="shared" si="3"/>
         <v>Map_MapName2_Name</v>
       </c>
-      <c r="E27" s="52" t="str">
+      <c r="E27" s="40" t="str">
         <f t="shared" si="4"/>
         <v>Map_MapName2_Desc</v>
       </c>
-      <c r="F27" s="52" t="str">
+      <c r="F27" s="40" t="str">
         <f t="shared" si="5"/>
         <v>Map_MapName2_Story</v>
       </c>
-      <c r="G27" s="50" t="s">
-        <v>114</v>
-      </c>
-      <c r="H27" s="50" t="s">
-        <v>114</v>
-      </c>
-      <c r="I27" s="69" t="s">
-        <v>114</v>
-      </c>
-      <c r="J27" s="52" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" s="53" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="50" t="s">
+      <c r="G27" s="40" t="s">
+        <v>114</v>
+      </c>
+      <c r="H27" s="40" t="s">
+        <v>114</v>
+      </c>
+      <c r="I27" s="56" t="s">
+        <v>114</v>
+      </c>
+      <c r="J27" s="40" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" s="42" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="40" t="s">
         <v>58</v>
       </c>
-      <c r="B28" s="51" t="s">
+      <c r="B28" s="41" t="s">
         <v>43</v>
       </c>
-      <c r="C28" s="50" t="s">
+      <c r="C28" s="40" t="s">
         <v>103</v>
       </c>
-      <c r="D28" s="52" t="str">
+      <c r="D28" s="40" t="str">
         <f t="shared" si="3"/>
         <v>Map_MapName3_Name</v>
       </c>
-      <c r="E28" s="52" t="str">
+      <c r="E28" s="40" t="str">
         <f t="shared" si="4"/>
         <v>Map_MapName3_Desc</v>
       </c>
-      <c r="F28" s="52" t="str">
+      <c r="F28" s="40" t="str">
         <f t="shared" si="5"/>
         <v>Map_MapName3_Story</v>
       </c>
-      <c r="G28" s="50" t="s">
-        <v>114</v>
-      </c>
-      <c r="H28" s="50" t="s">
-        <v>114</v>
-      </c>
-      <c r="I28" s="69" t="s">
-        <v>114</v>
-      </c>
-      <c r="J28" s="52" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" s="53" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="50" t="s">
+      <c r="G28" s="40" t="s">
+        <v>114</v>
+      </c>
+      <c r="H28" s="40" t="s">
+        <v>114</v>
+      </c>
+      <c r="I28" s="56" t="s">
+        <v>114</v>
+      </c>
+      <c r="J28" s="40" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" s="42" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="40" t="s">
         <v>59</v>
       </c>
-      <c r="B29" s="51" t="s">
+      <c r="B29" s="41" t="s">
         <v>44</v>
       </c>
-      <c r="C29" s="50" t="s">
+      <c r="C29" s="40" t="s">
         <v>103</v>
       </c>
-      <c r="D29" s="52" t="str">
+      <c r="D29" s="40" t="str">
         <f t="shared" si="3"/>
         <v>Map_MapName4_Name</v>
       </c>
-      <c r="E29" s="52" t="str">
+      <c r="E29" s="40" t="str">
         <f t="shared" si="4"/>
         <v>Map_MapName4_Desc</v>
       </c>
-      <c r="F29" s="52" t="str">
+      <c r="F29" s="40" t="str">
         <f t="shared" si="5"/>
         <v>Map_MapName4_Story</v>
       </c>
-      <c r="G29" s="50" t="s">
-        <v>114</v>
-      </c>
-      <c r="H29" s="50" t="s">
-        <v>114</v>
-      </c>
-      <c r="I29" s="69" t="s">
-        <v>114</v>
-      </c>
-      <c r="J29" s="52" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" s="53" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="50" t="s">
+      <c r="G29" s="40" t="s">
+        <v>114</v>
+      </c>
+      <c r="H29" s="40" t="s">
+        <v>114</v>
+      </c>
+      <c r="I29" s="56" t="s">
+        <v>114</v>
+      </c>
+      <c r="J29" s="40" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" s="42" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="40" t="s">
         <v>60</v>
       </c>
-      <c r="B30" s="51" t="s">
+      <c r="B30" s="41" t="s">
         <v>45</v>
       </c>
-      <c r="C30" s="50" t="s">
+      <c r="C30" s="40" t="s">
         <v>103</v>
       </c>
-      <c r="D30" s="52" t="str">
+      <c r="D30" s="40" t="str">
         <f t="shared" si="3"/>
         <v>Map_MapName5_Name</v>
       </c>
-      <c r="E30" s="52" t="str">
+      <c r="E30" s="40" t="str">
         <f t="shared" si="4"/>
         <v>Map_MapName5_Desc</v>
       </c>
-      <c r="F30" s="52" t="str">
+      <c r="F30" s="40" t="str">
         <f t="shared" si="5"/>
         <v>Map_MapName5_Story</v>
       </c>
-      <c r="G30" s="50" t="s">
-        <v>114</v>
-      </c>
-      <c r="H30" s="50" t="s">
-        <v>114</v>
-      </c>
-      <c r="I30" s="69" t="s">
-        <v>114</v>
-      </c>
-      <c r="J30" s="52" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" s="53" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="50" t="s">
+      <c r="G30" s="40" t="s">
+        <v>114</v>
+      </c>
+      <c r="H30" s="40" t="s">
+        <v>114</v>
+      </c>
+      <c r="I30" s="56" t="s">
+        <v>114</v>
+      </c>
+      <c r="J30" s="40" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" s="42" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="40" t="s">
         <v>61</v>
       </c>
-      <c r="B31" s="51" t="s">
+      <c r="B31" s="41" t="s">
         <v>46</v>
       </c>
-      <c r="C31" s="50" t="s">
+      <c r="C31" s="40" t="s">
         <v>103</v>
       </c>
-      <c r="D31" s="52" t="str">
+      <c r="D31" s="40" t="str">
         <f t="shared" si="3"/>
         <v>Map_MapName6_Name</v>
       </c>
-      <c r="E31" s="52" t="str">
+      <c r="E31" s="40" t="str">
         <f t="shared" si="4"/>
         <v>Map_MapName6_Desc</v>
       </c>
-      <c r="F31" s="52" t="str">
+      <c r="F31" s="40" t="str">
         <f t="shared" si="5"/>
         <v>Map_MapName6_Story</v>
       </c>
-      <c r="G31" s="50" t="s">
-        <v>114</v>
-      </c>
-      <c r="H31" s="50" t="s">
-        <v>114</v>
-      </c>
-      <c r="I31" s="69" t="s">
-        <v>114</v>
-      </c>
-      <c r="J31" s="52" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" s="53" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="50" t="s">
+      <c r="G31" s="40" t="s">
+        <v>114</v>
+      </c>
+      <c r="H31" s="40" t="s">
+        <v>114</v>
+      </c>
+      <c r="I31" s="56" t="s">
+        <v>114</v>
+      </c>
+      <c r="J31" s="40" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" s="42" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="40" t="s">
         <v>62</v>
       </c>
-      <c r="B32" s="51" t="s">
+      <c r="B32" s="41" t="s">
         <v>47</v>
       </c>
-      <c r="C32" s="50" t="s">
+      <c r="C32" s="40" t="s">
         <v>103</v>
       </c>
-      <c r="D32" s="52" t="str">
+      <c r="D32" s="40" t="str">
         <f t="shared" si="3"/>
         <v>Map_MapName7_Name</v>
       </c>
-      <c r="E32" s="52" t="str">
+      <c r="E32" s="40" t="str">
         <f t="shared" si="4"/>
         <v>Map_MapName7_Desc</v>
       </c>
-      <c r="F32" s="52" t="str">
+      <c r="F32" s="40" t="str">
         <f t="shared" si="5"/>
         <v>Map_MapName7_Story</v>
       </c>
-      <c r="G32" s="50" t="s">
-        <v>114</v>
-      </c>
-      <c r="H32" s="50" t="s">
-        <v>114</v>
-      </c>
-      <c r="I32" s="69" t="s">
-        <v>114</v>
-      </c>
-      <c r="J32" s="52" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" s="53" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="50" t="s">
+      <c r="G32" s="40" t="s">
+        <v>114</v>
+      </c>
+      <c r="H32" s="40" t="s">
+        <v>114</v>
+      </c>
+      <c r="I32" s="56" t="s">
+        <v>114</v>
+      </c>
+      <c r="J32" s="40" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" s="42" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="40" t="s">
         <v>63</v>
       </c>
-      <c r="B33" s="51" t="s">
+      <c r="B33" s="41" t="s">
         <v>48</v>
       </c>
-      <c r="C33" s="50" t="s">
+      <c r="C33" s="40" t="s">
         <v>103</v>
       </c>
-      <c r="D33" s="52" t="str">
+      <c r="D33" s="40" t="str">
         <f t="shared" si="3"/>
         <v>Map_MapName8_Name</v>
       </c>
-      <c r="E33" s="52" t="str">
+      <c r="E33" s="40" t="str">
         <f t="shared" si="4"/>
         <v>Map_MapName8_Desc</v>
       </c>
-      <c r="F33" s="52" t="str">
+      <c r="F33" s="40" t="str">
         <f t="shared" si="5"/>
         <v>Map_MapName8_Story</v>
       </c>
-      <c r="G33" s="50" t="s">
-        <v>114</v>
-      </c>
-      <c r="H33" s="50" t="s">
-        <v>114</v>
-      </c>
-      <c r="I33" s="69" t="s">
-        <v>114</v>
-      </c>
-      <c r="J33" s="52" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" s="53" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="50" t="s">
+      <c r="G33" s="40" t="s">
+        <v>114</v>
+      </c>
+      <c r="H33" s="40" t="s">
+        <v>114</v>
+      </c>
+      <c r="I33" s="56" t="s">
+        <v>114</v>
+      </c>
+      <c r="J33" s="40" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" s="42" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="40" t="s">
         <v>64</v>
       </c>
-      <c r="B34" s="51" t="s">
+      <c r="B34" s="41" t="s">
         <v>49</v>
       </c>
-      <c r="C34" s="50" t="s">
+      <c r="C34" s="40" t="s">
         <v>103</v>
       </c>
-      <c r="D34" s="52" t="str">
+      <c r="D34" s="40" t="str">
         <f t="shared" si="3"/>
         <v>Map_MapName9_Name</v>
       </c>
-      <c r="E34" s="52" t="str">
+      <c r="E34" s="40" t="str">
         <f t="shared" si="4"/>
         <v>Map_MapName9_Desc</v>
       </c>
-      <c r="F34" s="52" t="str">
+      <c r="F34" s="40" t="str">
         <f t="shared" si="5"/>
         <v>Map_MapName9_Story</v>
       </c>
-      <c r="G34" s="50" t="s">
-        <v>114</v>
-      </c>
-      <c r="H34" s="50" t="s">
-        <v>114</v>
-      </c>
-      <c r="I34" s="69" t="s">
-        <v>114</v>
-      </c>
-      <c r="J34" s="52" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" s="53" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="50" t="s">
+      <c r="G34" s="40" t="s">
+        <v>114</v>
+      </c>
+      <c r="H34" s="40" t="s">
+        <v>114</v>
+      </c>
+      <c r="I34" s="56" t="s">
+        <v>114</v>
+      </c>
+      <c r="J34" s="40" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" s="42" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="40" t="s">
         <v>65</v>
       </c>
-      <c r="B35" s="51" t="s">
+      <c r="B35" s="41" t="s">
         <v>50</v>
       </c>
-      <c r="C35" s="50" t="s">
+      <c r="C35" s="40" t="s">
         <v>103</v>
       </c>
-      <c r="D35" s="52" t="str">
+      <c r="D35" s="40" t="str">
         <f t="shared" si="3"/>
         <v>Map_MapName10_Name</v>
       </c>
-      <c r="E35" s="52" t="str">
+      <c r="E35" s="40" t="str">
         <f t="shared" si="4"/>
         <v>Map_MapName10_Desc</v>
       </c>
-      <c r="F35" s="52" t="str">
+      <c r="F35" s="40" t="str">
         <f t="shared" si="5"/>
         <v>Map_MapName10_Story</v>
       </c>
-      <c r="G35" s="50" t="s">
-        <v>114</v>
-      </c>
-      <c r="H35" s="50" t="s">
-        <v>114</v>
-      </c>
-      <c r="I35" s="69" t="s">
-        <v>114</v>
-      </c>
-      <c r="J35" s="52" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" s="53" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="50" t="s">
+      <c r="G35" s="40" t="s">
+        <v>114</v>
+      </c>
+      <c r="H35" s="40" t="s">
+        <v>114</v>
+      </c>
+      <c r="I35" s="56" t="s">
+        <v>114</v>
+      </c>
+      <c r="J35" s="40" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" s="42" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="40" t="s">
         <v>66</v>
       </c>
-      <c r="B36" s="51" t="s">
+      <c r="B36" s="41" t="s">
         <v>51</v>
       </c>
-      <c r="C36" s="50" t="s">
+      <c r="C36" s="40" t="s">
         <v>103</v>
       </c>
-      <c r="D36" s="52" t="str">
+      <c r="D36" s="40" t="str">
         <f t="shared" si="3"/>
         <v>Map_MapName11_Name</v>
       </c>
-      <c r="E36" s="52" t="str">
+      <c r="E36" s="40" t="str">
         <f t="shared" si="4"/>
         <v>Map_MapName11_Desc</v>
       </c>
-      <c r="F36" s="52" t="str">
+      <c r="F36" s="40" t="str">
         <f t="shared" si="5"/>
         <v>Map_MapName11_Story</v>
       </c>
-      <c r="G36" s="50" t="s">
-        <v>114</v>
-      </c>
-      <c r="H36" s="50" t="s">
-        <v>114</v>
-      </c>
-      <c r="I36" s="69" t="s">
-        <v>114</v>
-      </c>
-      <c r="J36" s="52" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" s="53" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="50" t="s">
+      <c r="G36" s="40" t="s">
+        <v>114</v>
+      </c>
+      <c r="H36" s="40" t="s">
+        <v>114</v>
+      </c>
+      <c r="I36" s="56" t="s">
+        <v>114</v>
+      </c>
+      <c r="J36" s="40" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" s="42" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="40" t="s">
         <v>67</v>
       </c>
-      <c r="B37" s="51" t="s">
+      <c r="B37" s="41" t="s">
         <v>52</v>
       </c>
-      <c r="C37" s="50" t="s">
+      <c r="C37" s="40" t="s">
         <v>103</v>
       </c>
-      <c r="D37" s="52" t="str">
+      <c r="D37" s="40" t="str">
         <f t="shared" si="3"/>
         <v>Map_MapName12_Name</v>
       </c>
-      <c r="E37" s="52" t="str">
+      <c r="E37" s="40" t="str">
         <f t="shared" si="4"/>
         <v>Map_MapName12_Desc</v>
       </c>
-      <c r="F37" s="52" t="str">
+      <c r="F37" s="40" t="str">
         <f t="shared" si="5"/>
         <v>Map_MapName12_Story</v>
       </c>
-      <c r="G37" s="50" t="s">
-        <v>114</v>
-      </c>
-      <c r="H37" s="50" t="s">
-        <v>114</v>
-      </c>
-      <c r="I37" s="69" t="s">
-        <v>114</v>
-      </c>
-      <c r="J37" s="52" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" s="53" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="50" t="s">
+      <c r="G37" s="40" t="s">
+        <v>114</v>
+      </c>
+      <c r="H37" s="40" t="s">
+        <v>114</v>
+      </c>
+      <c r="I37" s="56" t="s">
+        <v>114</v>
+      </c>
+      <c r="J37" s="40" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" s="42" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="40" t="s">
         <v>68</v>
       </c>
-      <c r="B38" s="51" t="s">
+      <c r="B38" s="41" t="s">
         <v>53</v>
       </c>
-      <c r="C38" s="50" t="s">
+      <c r="C38" s="40" t="s">
         <v>103</v>
       </c>
-      <c r="D38" s="52" t="str">
+      <c r="D38" s="40" t="str">
         <f t="shared" si="3"/>
         <v>Map_MapName13_Name</v>
       </c>
-      <c r="E38" s="52" t="str">
+      <c r="E38" s="40" t="str">
         <f t="shared" si="4"/>
         <v>Map_MapName13_Desc</v>
       </c>
-      <c r="F38" s="52" t="str">
+      <c r="F38" s="40" t="str">
         <f t="shared" si="5"/>
         <v>Map_MapName13_Story</v>
       </c>
-      <c r="G38" s="50" t="s">
-        <v>114</v>
-      </c>
-      <c r="H38" s="50" t="s">
-        <v>114</v>
-      </c>
-      <c r="I38" s="69" t="s">
-        <v>114</v>
-      </c>
-      <c r="J38" s="52" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" s="53" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="50" t="s">
+      <c r="G38" s="40" t="s">
+        <v>114</v>
+      </c>
+      <c r="H38" s="40" t="s">
+        <v>114</v>
+      </c>
+      <c r="I38" s="56" t="s">
+        <v>114</v>
+      </c>
+      <c r="J38" s="40" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" s="42" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="40" t="s">
         <v>69</v>
       </c>
-      <c r="B39" s="51" t="s">
+      <c r="B39" s="41" t="s">
         <v>54</v>
       </c>
-      <c r="C39" s="50" t="s">
+      <c r="C39" s="40" t="s">
         <v>103</v>
       </c>
-      <c r="D39" s="52" t="str">
+      <c r="D39" s="40" t="str">
         <f t="shared" si="3"/>
         <v>Map_MapName14_Name</v>
       </c>
-      <c r="E39" s="52" t="str">
+      <c r="E39" s="40" t="str">
         <f t="shared" si="4"/>
         <v>Map_MapName14_Desc</v>
       </c>
-      <c r="F39" s="52" t="str">
+      <c r="F39" s="40" t="str">
         <f t="shared" si="5"/>
         <v>Map_MapName14_Story</v>
       </c>
-      <c r="G39" s="50" t="s">
-        <v>114</v>
-      </c>
-      <c r="H39" s="50" t="s">
-        <v>114</v>
-      </c>
-      <c r="I39" s="69" t="s">
-        <v>114</v>
-      </c>
-      <c r="J39" s="52" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" s="53" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="50" t="s">
+      <c r="G39" s="40" t="s">
+        <v>114</v>
+      </c>
+      <c r="H39" s="40" t="s">
+        <v>114</v>
+      </c>
+      <c r="I39" s="56" t="s">
+        <v>114</v>
+      </c>
+      <c r="J39" s="40" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" s="42" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="40" t="s">
         <v>70</v>
       </c>
-      <c r="B40" s="51" t="s">
+      <c r="B40" s="41" t="s">
         <v>55</v>
       </c>
-      <c r="C40" s="50" t="s">
+      <c r="C40" s="40" t="s">
         <v>103</v>
       </c>
-      <c r="D40" s="52" t="str">
+      <c r="D40" s="40" t="str">
         <f t="shared" si="3"/>
         <v>Map_MapName15_Name</v>
       </c>
-      <c r="E40" s="52" t="str">
+      <c r="E40" s="40" t="str">
         <f t="shared" si="4"/>
         <v>Map_MapName15_Desc</v>
       </c>
-      <c r="F40" s="52" t="str">
+      <c r="F40" s="40" t="str">
         <f t="shared" si="5"/>
         <v>Map_MapName15_Story</v>
       </c>
-      <c r="G40" s="50" t="s">
-        <v>114</v>
-      </c>
-      <c r="H40" s="50" t="s">
-        <v>114</v>
-      </c>
-      <c r="I40" s="69" t="s">
-        <v>114</v>
-      </c>
-      <c r="J40" s="52" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" s="57" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="54" t="s">
+      <c r="G40" s="40" t="s">
+        <v>114</v>
+      </c>
+      <c r="H40" s="40" t="s">
+        <v>114</v>
+      </c>
+      <c r="I40" s="56" t="s">
+        <v>114</v>
+      </c>
+      <c r="J40" s="40" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" s="45" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="43" t="s">
         <v>82</v>
       </c>
-      <c r="B41" s="55" t="s">
+      <c r="B41" s="44" t="s">
         <v>72</v>
       </c>
-      <c r="C41" s="54" t="s">
+      <c r="C41" s="43" t="s">
         <v>104</v>
       </c>
-      <c r="D41" s="56" t="str">
+      <c r="D41" s="43" t="str">
         <f t="shared" si="3"/>
         <v>Key_LocationName1_Name</v>
       </c>
-      <c r="E41" s="56" t="str">
+      <c r="E41" s="43" t="str">
         <f t="shared" si="4"/>
         <v>Key_LocationName1_Desc</v>
       </c>
-      <c r="F41" s="56" t="str">
+      <c r="F41" s="43" t="str">
         <f t="shared" si="5"/>
         <v>Key_LocationName1_Story</v>
       </c>
-      <c r="G41" s="54" t="s">
-        <v>114</v>
-      </c>
-      <c r="H41" s="54" t="s">
-        <v>114</v>
-      </c>
-      <c r="I41" s="70" t="s">
-        <v>114</v>
-      </c>
-      <c r="J41" s="56" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" s="57" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="54" t="s">
+      <c r="G41" s="43" t="s">
+        <v>114</v>
+      </c>
+      <c r="H41" s="43" t="s">
+        <v>114</v>
+      </c>
+      <c r="I41" s="57" t="s">
+        <v>114</v>
+      </c>
+      <c r="J41" s="43" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" s="45" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A42" s="43" t="s">
         <v>83</v>
       </c>
-      <c r="B42" s="55" t="s">
+      <c r="B42" s="44" t="s">
         <v>73</v>
       </c>
-      <c r="C42" s="54" t="s">
+      <c r="C42" s="43" t="s">
         <v>104</v>
       </c>
-      <c r="D42" s="56" t="str">
+      <c r="D42" s="43" t="str">
         <f t="shared" si="3"/>
         <v>Key_LocationName2_Name</v>
       </c>
-      <c r="E42" s="56" t="str">
+      <c r="E42" s="43" t="str">
         <f t="shared" si="4"/>
         <v>Key_LocationName2_Desc</v>
       </c>
-      <c r="F42" s="56" t="str">
+      <c r="F42" s="43" t="str">
         <f t="shared" si="5"/>
         <v>Key_LocationName2_Story</v>
       </c>
-      <c r="G42" s="54" t="s">
-        <v>114</v>
-      </c>
-      <c r="H42" s="54" t="s">
-        <v>114</v>
-      </c>
-      <c r="I42" s="70" t="s">
-        <v>114</v>
-      </c>
-      <c r="J42" s="56" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" s="57" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="54" t="s">
+      <c r="G42" s="43" t="s">
+        <v>114</v>
+      </c>
+      <c r="H42" s="43" t="s">
+        <v>114</v>
+      </c>
+      <c r="I42" s="57" t="s">
+        <v>114</v>
+      </c>
+      <c r="J42" s="43" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" s="45" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A43" s="43" t="s">
         <v>84</v>
       </c>
-      <c r="B43" s="55" t="s">
+      <c r="B43" s="44" t="s">
         <v>74</v>
       </c>
-      <c r="C43" s="54" t="s">
+      <c r="C43" s="43" t="s">
         <v>104</v>
       </c>
-      <c r="D43" s="56" t="str">
+      <c r="D43" s="43" t="str">
         <f t="shared" si="3"/>
         <v>Key_LocationName3_Name</v>
       </c>
-      <c r="E43" s="56" t="str">
+      <c r="E43" s="43" t="str">
         <f t="shared" si="4"/>
         <v>Key_LocationName3_Desc</v>
       </c>
-      <c r="F43" s="56" t="str">
+      <c r="F43" s="43" t="str">
         <f t="shared" si="5"/>
         <v>Key_LocationName3_Story</v>
       </c>
-      <c r="G43" s="54" t="s">
-        <v>114</v>
-      </c>
-      <c r="H43" s="54" t="s">
-        <v>114</v>
-      </c>
-      <c r="I43" s="70" t="s">
-        <v>114</v>
-      </c>
-      <c r="J43" s="56" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" s="57" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="54" t="s">
+      <c r="G43" s="43" t="s">
+        <v>114</v>
+      </c>
+      <c r="H43" s="43" t="s">
+        <v>114</v>
+      </c>
+      <c r="I43" s="57" t="s">
+        <v>114</v>
+      </c>
+      <c r="J43" s="43" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" s="45" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A44" s="43" t="s">
         <v>85</v>
       </c>
-      <c r="B44" s="55" t="s">
+      <c r="B44" s="44" t="s">
         <v>75</v>
       </c>
-      <c r="C44" s="54" t="s">
+      <c r="C44" s="43" t="s">
         <v>104</v>
       </c>
-      <c r="D44" s="56" t="str">
+      <c r="D44" s="43" t="str">
         <f t="shared" si="3"/>
         <v>Key_LocationName4_Name</v>
       </c>
-      <c r="E44" s="56" t="str">
+      <c r="E44" s="43" t="str">
         <f t="shared" si="4"/>
         <v>Key_LocationName4_Desc</v>
       </c>
-      <c r="F44" s="56" t="str">
+      <c r="F44" s="43" t="str">
         <f t="shared" si="5"/>
         <v>Key_LocationName4_Story</v>
       </c>
-      <c r="G44" s="54" t="s">
-        <v>114</v>
-      </c>
-      <c r="H44" s="54" t="s">
-        <v>114</v>
-      </c>
-      <c r="I44" s="70" t="s">
-        <v>114</v>
-      </c>
-      <c r="J44" s="56" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" s="57" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="54" t="s">
+      <c r="G44" s="43" t="s">
+        <v>114</v>
+      </c>
+      <c r="H44" s="43" t="s">
+        <v>114</v>
+      </c>
+      <c r="I44" s="57" t="s">
+        <v>114</v>
+      </c>
+      <c r="J44" s="43" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" s="45" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A45" s="43" t="s">
         <v>86</v>
       </c>
-      <c r="B45" s="55" t="s">
+      <c r="B45" s="44" t="s">
         <v>76</v>
       </c>
-      <c r="C45" s="54" t="s">
+      <c r="C45" s="43" t="s">
         <v>104</v>
       </c>
-      <c r="D45" s="56" t="str">
+      <c r="D45" s="43" t="str">
         <f t="shared" si="3"/>
         <v>Key_LocationName5_Name</v>
       </c>
-      <c r="E45" s="56" t="str">
+      <c r="E45" s="43" t="str">
         <f t="shared" si="4"/>
         <v>Key_LocationName5_Desc</v>
       </c>
-      <c r="F45" s="56" t="str">
+      <c r="F45" s="43" t="str">
         <f t="shared" si="5"/>
         <v>Key_LocationName5_Story</v>
       </c>
-      <c r="G45" s="54" t="s">
-        <v>114</v>
-      </c>
-      <c r="H45" s="54" t="s">
-        <v>114</v>
-      </c>
-      <c r="I45" s="70" t="s">
-        <v>114</v>
-      </c>
-      <c r="J45" s="56" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" s="57" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="54" t="s">
+      <c r="G45" s="43" t="s">
+        <v>114</v>
+      </c>
+      <c r="H45" s="43" t="s">
+        <v>114</v>
+      </c>
+      <c r="I45" s="57" t="s">
+        <v>114</v>
+      </c>
+      <c r="J45" s="43" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" s="45" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A46" s="43" t="s">
         <v>87</v>
       </c>
-      <c r="B46" s="55" t="s">
+      <c r="B46" s="44" t="s">
         <v>77</v>
       </c>
-      <c r="C46" s="54" t="s">
+      <c r="C46" s="43" t="s">
         <v>104</v>
       </c>
-      <c r="D46" s="56" t="str">
+      <c r="D46" s="43" t="str">
         <f t="shared" si="3"/>
         <v>Key_LocationName6_Name</v>
       </c>
-      <c r="E46" s="56" t="str">
+      <c r="E46" s="43" t="str">
         <f t="shared" si="4"/>
         <v>Key_LocationName6_Desc</v>
       </c>
-      <c r="F46" s="56" t="str">
+      <c r="F46" s="43" t="str">
         <f t="shared" si="5"/>
         <v>Key_LocationName6_Story</v>
       </c>
-      <c r="G46" s="54" t="s">
-        <v>114</v>
-      </c>
-      <c r="H46" s="54" t="s">
-        <v>114</v>
-      </c>
-      <c r="I46" s="70" t="s">
-        <v>114</v>
-      </c>
-      <c r="J46" s="56" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10" s="57" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="54" t="s">
+      <c r="G46" s="43" t="s">
+        <v>114</v>
+      </c>
+      <c r="H46" s="43" t="s">
+        <v>114</v>
+      </c>
+      <c r="I46" s="57" t="s">
+        <v>114</v>
+      </c>
+      <c r="J46" s="43" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" s="45" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A47" s="43" t="s">
         <v>88</v>
       </c>
-      <c r="B47" s="55" t="s">
+      <c r="B47" s="44" t="s">
         <v>78</v>
       </c>
-      <c r="C47" s="54" t="s">
+      <c r="C47" s="43" t="s">
         <v>104</v>
       </c>
-      <c r="D47" s="56" t="str">
+      <c r="D47" s="43" t="str">
         <f t="shared" si="3"/>
         <v>Key_LocationName7_Name</v>
       </c>
-      <c r="E47" s="56" t="str">
+      <c r="E47" s="43" t="str">
         <f t="shared" si="4"/>
         <v>Key_LocationName7_Desc</v>
       </c>
-      <c r="F47" s="56" t="str">
+      <c r="F47" s="43" t="str">
         <f t="shared" si="5"/>
         <v>Key_LocationName7_Story</v>
       </c>
-      <c r="G47" s="54" t="s">
-        <v>114</v>
-      </c>
-      <c r="H47" s="54" t="s">
-        <v>114</v>
-      </c>
-      <c r="I47" s="70" t="s">
-        <v>114</v>
-      </c>
-      <c r="J47" s="56" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10" s="57" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="54" t="s">
+      <c r="G47" s="43" t="s">
+        <v>114</v>
+      </c>
+      <c r="H47" s="43" t="s">
+        <v>114</v>
+      </c>
+      <c r="I47" s="57" t="s">
+        <v>114</v>
+      </c>
+      <c r="J47" s="43" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" s="45" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A48" s="43" t="s">
         <v>89</v>
       </c>
-      <c r="B48" s="55" t="s">
+      <c r="B48" s="44" t="s">
         <v>79</v>
       </c>
-      <c r="C48" s="54" t="s">
+      <c r="C48" s="43" t="s">
         <v>104</v>
       </c>
-      <c r="D48" s="56" t="str">
+      <c r="D48" s="43" t="str">
         <f t="shared" si="3"/>
         <v>Key_LocationName8_Name</v>
       </c>
-      <c r="E48" s="56" t="str">
+      <c r="E48" s="43" t="str">
         <f t="shared" si="4"/>
         <v>Key_LocationName8_Desc</v>
       </c>
-      <c r="F48" s="56" t="str">
+      <c r="F48" s="43" t="str">
         <f t="shared" si="5"/>
         <v>Key_LocationName8_Story</v>
       </c>
-      <c r="G48" s="54" t="s">
-        <v>114</v>
-      </c>
-      <c r="H48" s="54" t="s">
-        <v>114</v>
-      </c>
-      <c r="I48" s="70" t="s">
-        <v>114</v>
-      </c>
-      <c r="J48" s="56" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10" s="57" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="54" t="s">
+      <c r="G48" s="43" t="s">
+        <v>114</v>
+      </c>
+      <c r="H48" s="43" t="s">
+        <v>114</v>
+      </c>
+      <c r="I48" s="57" t="s">
+        <v>114</v>
+      </c>
+      <c r="J48" s="43" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" s="45" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A49" s="43" t="s">
         <v>90</v>
       </c>
-      <c r="B49" s="55" t="s">
+      <c r="B49" s="44" t="s">
         <v>80</v>
       </c>
-      <c r="C49" s="54" t="s">
+      <c r="C49" s="43" t="s">
         <v>104</v>
       </c>
-      <c r="D49" s="56" t="str">
+      <c r="D49" s="43" t="str">
         <f t="shared" si="3"/>
         <v>Key_LocationName9_Name</v>
       </c>
-      <c r="E49" s="56" t="str">
+      <c r="E49" s="43" t="str">
         <f t="shared" si="4"/>
         <v>Key_LocationName9_Desc</v>
       </c>
-      <c r="F49" s="56" t="str">
+      <c r="F49" s="43" t="str">
         <f t="shared" si="5"/>
         <v>Key_LocationName9_Story</v>
       </c>
-      <c r="G49" s="54" t="s">
-        <v>114</v>
-      </c>
-      <c r="H49" s="54" t="s">
-        <v>114</v>
-      </c>
-      <c r="I49" s="70" t="s">
-        <v>114</v>
-      </c>
-      <c r="J49" s="56" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10" s="57" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="54" t="s">
+      <c r="G49" s="43" t="s">
+        <v>114</v>
+      </c>
+      <c r="H49" s="43" t="s">
+        <v>114</v>
+      </c>
+      <c r="I49" s="57" t="s">
+        <v>114</v>
+      </c>
+      <c r="J49" s="43" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" s="45" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A50" s="43" t="s">
         <v>91</v>
       </c>
-      <c r="B50" s="55" t="s">
+      <c r="B50" s="44" t="s">
         <v>81</v>
       </c>
-      <c r="C50" s="54" t="s">
+      <c r="C50" s="43" t="s">
         <v>104</v>
       </c>
-      <c r="D50" s="56" t="str">
+      <c r="D50" s="43" t="str">
         <f t="shared" si="3"/>
         <v>Key_LocationName10_Name</v>
       </c>
-      <c r="E50" s="56" t="str">
+      <c r="E50" s="43" t="str">
         <f t="shared" si="4"/>
         <v>Key_LocationName10_Desc</v>
       </c>
-      <c r="F50" s="56" t="str">
+      <c r="F50" s="43" t="str">
         <f t="shared" si="5"/>
         <v>Key_LocationName10_Story</v>
       </c>
-      <c r="G50" s="54" t="s">
-        <v>114</v>
-      </c>
-      <c r="H50" s="54" t="s">
-        <v>114</v>
-      </c>
-      <c r="I50" s="70" t="s">
-        <v>114</v>
-      </c>
-      <c r="J50" s="56" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="22" t="s">
+      <c r="G50" s="43" t="s">
+        <v>114</v>
+      </c>
+      <c r="H50" s="43" t="s">
+        <v>114</v>
+      </c>
+      <c r="I50" s="57" t="s">
+        <v>114</v>
+      </c>
+      <c r="J50" s="43" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" s="22" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A51" s="19" t="s">
         <v>95</v>
       </c>
-      <c r="B51" s="23" t="s">
+      <c r="B51" s="20" t="s">
         <v>71</v>
       </c>
-      <c r="C51" s="22" t="s">
+      <c r="C51" s="19" t="s">
         <v>106</v>
       </c>
-      <c r="D51" s="25" t="str">
+      <c r="D51" s="19" t="str">
         <f t="shared" si="3"/>
         <v>Lantern_Name</v>
       </c>
-      <c r="E51" s="25" t="str">
+      <c r="E51" s="19" t="str">
         <f t="shared" si="4"/>
         <v>Lantern_Desc</v>
       </c>
-      <c r="F51" s="25" t="str">
+      <c r="F51" s="19" t="str">
         <f t="shared" si="5"/>
         <v>Lantern_Story</v>
       </c>
-      <c r="G51" s="22" t="s">
-        <v>114</v>
-      </c>
-      <c r="H51" s="22" t="s">
-        <v>114</v>
-      </c>
-      <c r="I51" s="66" t="s">
-        <v>114</v>
-      </c>
-      <c r="J51" s="25" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10" s="34" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="31" t="s">
+      <c r="G51" s="19" t="s">
+        <v>114</v>
+      </c>
+      <c r="H51" s="19" t="s">
+        <v>114</v>
+      </c>
+      <c r="I51" s="53" t="s">
+        <v>114</v>
+      </c>
+      <c r="J51" s="19" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" s="28" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A52" s="26" t="s">
         <v>107</v>
       </c>
-      <c r="B52" s="32" t="s">
+      <c r="B52" s="27" t="s">
         <v>108</v>
       </c>
-      <c r="C52" s="31" t="s">
+      <c r="C52" s="26" t="s">
         <v>106</v>
       </c>
-      <c r="D52" s="33" t="str">
+      <c r="D52" s="26" t="str">
         <f t="shared" si="3"/>
         <v>Stone_AtkPowerUp_Name</v>
       </c>
-      <c r="E52" s="33" t="str">
+      <c r="E52" s="26" t="str">
         <f t="shared" si="4"/>
         <v>Stone_AtkPowerUp_Desc</v>
       </c>
-      <c r="F52" s="33" t="str">
+      <c r="F52" s="26" t="str">
         <f t="shared" si="5"/>
         <v>Stone_AtkPowerUp_Story</v>
       </c>
-      <c r="G52" s="31" t="s">
-        <v>114</v>
-      </c>
-      <c r="H52" s="31" t="s">
+      <c r="G52" s="26" t="s">
+        <v>114</v>
+      </c>
+      <c r="H52" s="26" t="s">
         <v>118</v>
       </c>
-      <c r="I52" s="60" t="s">
-        <v>114</v>
-      </c>
-      <c r="J52" s="33" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10" s="34" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="31" t="s">
+      <c r="I52" s="47" t="s">
+        <v>114</v>
+      </c>
+      <c r="J52" s="26" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" s="28" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A53" s="26" t="s">
         <v>110</v>
       </c>
-      <c r="B53" s="32" t="s">
+      <c r="B53" s="27" t="s">
         <v>111</v>
       </c>
-      <c r="C53" s="31" t="s">
+      <c r="C53" s="26" t="s">
         <v>106</v>
       </c>
-      <c r="D53" s="33" t="str">
+      <c r="D53" s="26" t="str">
         <f t="shared" si="3"/>
         <v>Stone_MaxHpUp_Name</v>
       </c>
-      <c r="E53" s="33" t="str">
+      <c r="E53" s="26" t="str">
         <f t="shared" si="4"/>
         <v>Stone_MaxHpUp_Desc</v>
       </c>
-      <c r="F53" s="33" t="str">
+      <c r="F53" s="26" t="str">
         <f t="shared" si="5"/>
         <v>Stone_MaxHpUp_Story</v>
       </c>
-      <c r="G53" s="31" t="s">
-        <v>114</v>
-      </c>
-      <c r="H53" s="31" t="s">
+      <c r="G53" s="26" t="s">
+        <v>114</v>
+      </c>
+      <c r="H53" s="26" t="s">
         <v>119</v>
       </c>
-      <c r="I53" s="60" t="s">
-        <v>114</v>
-      </c>
-      <c r="J53" s="33" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="54" spans="1:10" s="34" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="31" t="s">
+      <c r="I53" s="47" t="s">
+        <v>114</v>
+      </c>
+      <c r="J53" s="26" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" s="28" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A54" s="26" t="s">
         <v>109</v>
       </c>
-      <c r="B54" s="32" t="s">
+      <c r="B54" s="27" t="s">
         <v>112</v>
       </c>
-      <c r="C54" s="31" t="s">
+      <c r="C54" s="26" t="s">
         <v>106</v>
       </c>
-      <c r="D54" s="33" t="str">
+      <c r="D54" s="26" t="str">
         <f t="shared" ref="D54" si="6">A54&amp;"_"&amp;"Name"</f>
         <v>Stone_MaxMpUp_Name</v>
       </c>
-      <c r="E54" s="33" t="str">
+      <c r="E54" s="26" t="str">
         <f t="shared" ref="E54" si="7">A54&amp;"_"&amp;"Desc"</f>
         <v>Stone_MaxMpUp_Desc</v>
       </c>
-      <c r="F54" s="33" t="str">
+      <c r="F54" s="26" t="str">
         <f t="shared" ref="F54" si="8">A54&amp;"_"&amp;"Story"</f>
         <v>Stone_MaxMpUp_Story</v>
       </c>
-      <c r="G54" s="31" t="s">
-        <v>114</v>
-      </c>
-      <c r="H54" s="31" t="s">
+      <c r="G54" s="26" t="s">
+        <v>114</v>
+      </c>
+      <c r="H54" s="26" t="s">
         <v>120</v>
       </c>
-      <c r="I54" s="60" t="s">
-        <v>114</v>
-      </c>
-      <c r="J54" s="33" t="s">
+      <c r="I54" s="47" t="s">
+        <v>114</v>
+      </c>
+      <c r="J54" s="26" t="s">
         <v>114</v>
       </c>
     </row>
